--- a/docs/画面項目定義書/security_group_dashboard.xlsx
+++ b/docs/画面項目定義書/security_group_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245BFAD-DD40-4158-B069-40662BC8698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C09C05-B1FA-4379-8EC5-22FB8690A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -242,16 +242,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>セキュリティグループ追加モーダルを表示</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -310,6 +300,16 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループ追加モーダルへ遷移</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -734,6 +734,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,24 +760,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1299,21 +1299,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1333,7 +1333,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1342,7 +1342,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1351,11 +1351,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1364,11 +1364,11 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
@@ -1386,7 +1386,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1441,22 +1441,22 @@
       <c r="F10" s="31"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1470,81 +1470,81 @@
       <c r="E12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>39</v>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>40</v>
+      <c r="B14" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>41</v>
+      <c r="B15" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>42</v>
+      <c r="B16" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>11</v>
@@ -1558,12 +1558,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>11</v>
@@ -1577,12 +1577,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>11</v>
@@ -1596,12 +1596,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
@@ -1613,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>16</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="F25" s="31"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>18</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>

--- a/docs/画面項目定義書/security_group_dashboard.xlsx
+++ b/docs/画面項目定義書/security_group_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C09C05-B1FA-4379-8EC5-22FB8690A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83A7EA-8009-445C-BA78-0A058F97998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>日本工学院</t>
   </si>
@@ -131,33 +131,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>繰り返しで表示、押下時オブジェクトを削除</t>
-    <rPh sb="8" eb="11">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -223,25 +197,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>繰り返しで表示、押下時セキュリティグループ詳細/編集画面へ遷移</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -311,6 +266,106 @@
     <rPh sb="17" eb="19">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返しで表示、押下時セキュリティグループ編集モーダルへ遷移</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・ユーザーオブジェクトを取得し、繰り返しで表示
+・セキュリティグループ詳細画面へ遷移</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1299,21 +1354,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1379,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1333,7 +1388,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1342,7 +1397,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1351,7 +1406,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
@@ -1364,20 +1419,20 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="25"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
@@ -1386,7 +1441,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1409,145 +1464,145 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="20"/>
       <c r="E9" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" t="s">
@@ -1555,15 +1610,15 @@
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>11</v>
@@ -1574,15 +1629,15 @@
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>11</v>
@@ -1593,15 +1648,15 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
@@ -1610,10 +1665,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1632,7 +1687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1648,10 +1703,10 @@
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1667,43 +1722,65 @@
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>16</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="28"/>
+      <c r="E24" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="31"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>17</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="D25" s="21"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="31"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G25" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>18</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="D26" s="21"/>
-      <c r="E26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="F26" s="31"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G26" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1714,7 +1791,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1725,7 +1802,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>

--- a/docs/画面項目定義書/security_group_dashboard.xlsx
+++ b/docs/画面項目定義書/security_group_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83A7EA-8009-445C-BA78-0A058F97998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853B22F-ABA9-4300-993A-4CDCBFDA23D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>削除ボタン</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -131,10 +127,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Ref(利用者サイドバー)</t>
     <rPh sb="4" eb="7">
       <t>リヨウシャ</t>
@@ -285,29 +277,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・ユーザーオブジェクトを取得し、繰り返しで表示
-・セキュリティグループ詳細画面へ遷移</t>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>繰り返し表示、押下時確認ポップアップを表示</t>
     <rPh sb="0" eb="1">
       <t>ク</t>
@@ -366,6 +335,37 @@
   </si>
   <si>
     <t>いいえ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティより</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループを取得し、繰り返しで表示
+・セキュリティグループ詳細画面へ遷移</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループを取得し、繰り返しで表示</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1354,21 +1354,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.58203125" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1388,7 +1388,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1397,7 +1397,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1406,7 +1406,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
@@ -1419,20 +1419,20 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="25"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
@@ -1441,7 +1441,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1464,211 +1464,211 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="20"/>
       <c r="E9" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1684,10 +1684,10 @@
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1703,15 +1703,15 @@
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>10</v>
@@ -1722,15 +1722,15 @@
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>11</v>
@@ -1742,45 +1742,45 @@
       <c r="F24" s="31"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>

--- a/docs/画面項目定義書/security_group_dashboard.xlsx
+++ b/docs/画面項目定義書/security_group_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853B22F-ABA9-4300-993A-4CDCBFDA23D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895958CF-E31A-4266-81F0-56A5F0EBAE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>日本工学院</t>
   </si>
@@ -366,6 +366,25 @@
   </si>
   <si>
     <t>セキュリティグループを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示、削除処理を実行</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1354,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1758,7 +1777,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
